--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H2">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I2">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J2">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>0.5815941682088889</v>
+        <v>0.023631378004</v>
       </c>
       <c r="R2">
-        <v>5.234347513879999</v>
+        <v>0.212682402036</v>
       </c>
       <c r="S2">
-        <v>0.02974149799015625</v>
+        <v>0.0005676067929324695</v>
       </c>
       <c r="T2">
-        <v>0.02974149799015624</v>
+        <v>0.0005676067929324696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H3">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I3">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J3">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>8.736749988695111</v>
+        <v>0.2590112429606666</v>
       </c>
       <c r="R3">
-        <v>78.63074989825598</v>
+        <v>2.331101186646</v>
       </c>
       <c r="S3">
-        <v>0.4467789507406926</v>
+        <v>0.006221242829151635</v>
       </c>
       <c r="T3">
-        <v>0.4467789507406926</v>
+        <v>0.006221242829151635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H4">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I4">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J4">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>4.421494613755556</v>
+        <v>0.1476865515646667</v>
       </c>
       <c r="R4">
-        <v>39.79345152379999</v>
+        <v>1.329178964082</v>
       </c>
       <c r="S4">
-        <v>0.226105900568911</v>
+        <v>0.003547312809210152</v>
       </c>
       <c r="T4">
-        <v>0.226105900568911</v>
+        <v>0.003547312809210154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H5">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I5">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J5">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>0.9168955864453332</v>
+        <v>0.03228627715</v>
       </c>
       <c r="R5">
-        <v>8.252060278007999</v>
+        <v>0.29057649435</v>
       </c>
       <c r="S5">
-        <v>0.04688810468204799</v>
+        <v>0.000775490545906312</v>
       </c>
       <c r="T5">
-        <v>0.046888104682048</v>
+        <v>0.0007754905459063122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H6">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I6">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J6">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>0.1943670759261111</v>
+        <v>0.7971138208106667</v>
       </c>
       <c r="R6">
-        <v>1.749303683335</v>
+        <v>7.174024387295999</v>
       </c>
       <c r="S6">
-        <v>0.00993952194502185</v>
+        <v>0.01914603623013036</v>
       </c>
       <c r="T6">
-        <v>0.00993952194502185</v>
+        <v>0.01914603623013036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H7">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I7">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J7">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
-        <v>2.919796382466888</v>
+        <v>8.736749988695111</v>
       </c>
       <c r="R7">
-        <v>26.27816744220199</v>
+        <v>78.63074989825598</v>
       </c>
       <c r="S7">
-        <v>0.149312223174863</v>
+        <v>0.2098497447290895</v>
       </c>
       <c r="T7">
-        <v>0.1493122231748631</v>
+        <v>0.2098497447290895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,14 +894,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H8">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I8">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J8">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>1.477650613219444</v>
+        <v>4.981638877772445</v>
       </c>
       <c r="R8">
-        <v>13.298855518975</v>
+        <v>44.834749899952</v>
       </c>
       <c r="S8">
-        <v>0.07556393297161604</v>
+        <v>0.1196549801912315</v>
       </c>
       <c r="T8">
-        <v>0.07556393297161604</v>
+        <v>0.1196549801912315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H9">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I9">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J9">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>0.3064238326456666</v>
+        <v>1.089053619066667</v>
       </c>
       <c r="R9">
-        <v>2.757814493810999</v>
+        <v>9.801482571600001</v>
       </c>
       <c r="S9">
-        <v>0.01566986792669112</v>
+        <v>0.02615819661237264</v>
       </c>
       <c r="T9">
-        <v>0.01566986792669112</v>
+        <v>0.02615819661237264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.24764</v>
+      </c>
+      <c r="H10">
+        <v>0.74292</v>
+      </c>
+      <c r="I10">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J10">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.273684</v>
+      </c>
+      <c r="N10">
+        <v>15.821052</v>
+      </c>
+      <c r="O10">
+        <v>0.0510821201937383</v>
+      </c>
+      <c r="P10">
+        <v>0.0510821201937383</v>
+      </c>
+      <c r="Q10">
+        <v>1.30597510576</v>
+      </c>
+      <c r="R10">
+        <v>11.75377595184</v>
+      </c>
+      <c r="S10">
+        <v>0.03136847717067547</v>
+      </c>
+      <c r="T10">
+        <v>0.03136847717067547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.24764</v>
+      </c>
+      <c r="H11">
+        <v>0.74292</v>
+      </c>
+      <c r="I11">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J11">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>57.80210733333333</v>
+      </c>
+      <c r="N11">
+        <v>173.406322</v>
+      </c>
+      <c r="O11">
+        <v>0.5598845502029881</v>
+      </c>
+      <c r="P11">
+        <v>0.5598845502029881</v>
+      </c>
+      <c r="Q11">
+        <v>14.31411386002667</v>
+      </c>
+      <c r="R11">
+        <v>128.82702474024</v>
+      </c>
+      <c r="S11">
+        <v>0.3438135626447469</v>
+      </c>
+      <c r="T11">
+        <v>0.343813562644747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.24764</v>
+      </c>
+      <c r="H12">
+        <v>0.74292</v>
+      </c>
+      <c r="I12">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J12">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>32.95839133333334</v>
+      </c>
+      <c r="N12">
+        <v>98.87517400000002</v>
+      </c>
+      <c r="O12">
+        <v>0.3192425840231603</v>
+      </c>
+      <c r="P12">
+        <v>0.3192425840231604</v>
+      </c>
+      <c r="Q12">
+        <v>8.161816029786667</v>
+      </c>
+      <c r="R12">
+        <v>73.45634426808002</v>
+      </c>
+      <c r="S12">
+        <v>0.1960402910227186</v>
+      </c>
+      <c r="T12">
+        <v>0.1960402910227187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.24764</v>
+      </c>
+      <c r="H13">
+        <v>0.74292</v>
+      </c>
+      <c r="I13">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J13">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.205150000000001</v>
+      </c>
+      <c r="N13">
+        <v>21.61545</v>
+      </c>
+      <c r="O13">
+        <v>0.06979074558011317</v>
+      </c>
+      <c r="P13">
+        <v>0.06979074558011318</v>
+      </c>
+      <c r="Q13">
+        <v>1.784283346</v>
+      </c>
+      <c r="R13">
+        <v>16.058550114</v>
+      </c>
+      <c r="S13">
+        <v>0.04285705842183422</v>
+      </c>
+      <c r="T13">
+        <v>0.04285705842183423</v>
       </c>
     </row>
   </sheetData>
